--- a/mmoRpgServerFinal/src/main/resources/message/npcMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/npcMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9240"/>
+    <workbookView windowWidth="14280" windowHeight="8255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,6 +106,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -114,7 +169,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,16 +182,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +201,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,92 +237,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,91 +259,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,85 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,41 +468,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +503,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -558,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>

--- a/mmoRpgServerFinal/src/main/resources/message/npcMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/npcMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14280" windowHeight="8255"/>
+    <workbookView windowWidth="16308" windowHeight="7764"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,137 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,134 +249,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -259,31 +259,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,151 +415,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,26 +453,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,13 +477,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,26 +507,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,7 +531,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,31 +570,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,100 +606,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>

--- a/mmoRpgServerFinal/src/main/resources/message/npcMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/npcMessage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>角色id：id</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>角色技能伤害加成：damageAdd</t>
+  </si>
+  <si>
+    <t>战胜后增加的经验：addExp</t>
   </si>
   <si>
     <t>舒华路滋</t>
@@ -107,6 +110,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -114,85 +132,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,6 +184,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -213,7 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,26 +245,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,31 +262,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,13 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,85 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,43 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,11 +456,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,41 +486,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,8 +509,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +529,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1064,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1100,14 +1103,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1122,7 +1127,7 @@
         <v>9527</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1">
         <v>100</v>
@@ -1136,13 +1141,16 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1157,7 +1165,7 @@
         <v>9527</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1">
         <v>100</v>
@@ -1171,13 +1179,16 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1192,7 +1203,7 @@
         <v>9527</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1">
         <v>100</v>
@@ -1206,13 +1217,16 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1227,7 +1241,7 @@
         <v>9527</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1">
         <v>100</v>
@@ -1241,13 +1255,16 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1262,7 +1279,7 @@
         <v>9527</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1">
         <v>100</v>
@@ -1276,13 +1293,16 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -1297,7 +1317,7 @@
         <v>9527</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1">
         <v>100</v>
@@ -1310,6 +1330,9 @@
       </c>
       <c r="K7" s="1">
         <v>0</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
